--- a/MDAPy/Saved_Files/All_MDA_Data.xlsx
+++ b/MDAPy/Saved_Files/All_MDA_Data.xlsx
@@ -685,13 +685,13 @@
         <v>78.59999999999999</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.53782573642572</v>
+        <v>71.34710410060653</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.675327256564444</v>
+        <v>2.899729373768338</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.802708204488297</v>
+        <v>5.655127073049158</v>
       </c>
       <c r="AE2" t="n">
         <v>71.16098059768862</v>
@@ -703,7 +703,7 @@
         <v>71.16098059768861</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.45532617325371</v>
+        <v>2.45532702709407</v>
       </c>
     </row>
     <row r="3">
@@ -791,13 +791,13 @@
         <v>86.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.38769691155042</v>
+        <v>65.2710874183977</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.30431782889211</v>
+        <v>2.461462733533821</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.672001395396677</v>
+        <v>4.664418409253777</v>
       </c>
       <c r="AE3" t="n">
         <v>67.33445841443096</v>
@@ -806,10 +806,10 @@
         <v>2.600054090014365</v>
       </c>
       <c r="AG3" t="n">
-        <v>72.2682964303465</v>
+        <v>72.2682964303286</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.32599118985561</v>
+        <v>1.32599119184743</v>
       </c>
     </row>
   </sheetData>

--- a/MDAPy/Saved_Files/All_MDA_Data.xlsx
+++ b/MDAPy/Saved_Files/All_MDA_Data.xlsx
@@ -685,13 +685,13 @@
         <v>78.59999999999999</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.34710410060653</v>
+        <v>71.2361088147756</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.899729373768338</v>
+        <v>2.954699295383421</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.655127073049158</v>
+        <v>5.586471832010261</v>
       </c>
       <c r="AE2" t="n">
         <v>71.16098059768862</v>
@@ -703,7 +703,7 @@
         <v>71.16098059768861</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.45532702709407</v>
+        <v>2.45532703307122</v>
       </c>
     </row>
     <row r="3">
@@ -791,13 +791,13 @@
         <v>86.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.2710874183977</v>
+        <v>64.77826705872012</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.461462733533821</v>
+        <v>2.958314181573442</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.664418409253777</v>
+        <v>4.135650105531731</v>
       </c>
       <c r="AE3" t="n">
         <v>67.33445841443096</v>
@@ -806,10 +806,10 @@
         <v>2.600054090014365</v>
       </c>
       <c r="AG3" t="n">
-        <v>72.2682964303286</v>
+        <v>72.2682964303483</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.32599119184743</v>
+        <v>1.32599118982725</v>
       </c>
     </row>
   </sheetData>
